--- a/script_master_data/ficherosExcelOrigen/DED-IBase_Adopcion IA_v2a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-IBase_Adopcion IA_v2a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E84176B-8A98-4C03-99D2-8A45F66DDE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30CDC78-51D8-47A6-BE18-086C35EA124B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Reporte" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$178</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -20166,10 +20166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AO54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AS13" sqref="AS13"/>
@@ -20179,7 +20180,7 @@
   <cols>
     <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.7265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
@@ -25020,7 +25021,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="153"/>
       <c r="D76" s="10"/>
@@ -25059,7 +25060,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="153"/>
       <c r="D77" s="10"/>
@@ -25104,7 +25105,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="153"/>
       <c r="D78" s="10"/>
@@ -25149,7 +25150,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="153"/>
       <c r="D79" s="10"/>
@@ -25194,7 +25195,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="153"/>
       <c r="D80" s="10"/>
@@ -25239,7 +25240,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="153"/>
       <c r="D81" s="10"/>
@@ -25284,7 +25285,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="153"/>
       <c r="D82" s="10"/>
@@ -25329,7 +25330,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="153"/>
       <c r="D83" s="10"/>
@@ -25374,7 +25375,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="153"/>
       <c r="D84" s="10"/>
@@ -25419,7 +25420,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="153"/>
       <c r="D85" s="10"/>
@@ -25464,7 +25465,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="153"/>
       <c r="D86" s="10"/>
@@ -25509,7 +25510,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="153"/>
       <c r="D87" s="10"/>
@@ -25554,7 +25555,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="153"/>
       <c r="D88" s="10"/>
@@ -25599,7 +25600,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="153"/>
       <c r="D89" s="10"/>
@@ -25644,7 +25645,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="153"/>
       <c r="D90" s="10"/>
@@ -25689,7 +25690,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="153"/>
       <c r="D91" s="10"/>
@@ -25734,7 +25735,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="153"/>
       <c r="D92" s="10"/>
@@ -25779,7 +25780,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="153"/>
       <c r="D93" s="10"/>
@@ -25824,7 +25825,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="153"/>
       <c r="D94" s="10"/>
@@ -25869,7 +25870,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="153"/>
       <c r="D95" s="10"/>
@@ -25914,7 +25915,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="153"/>
       <c r="D96" s="10"/>
@@ -25959,7 +25960,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="153"/>
       <c r="D97" s="10"/>
@@ -26004,7 +26005,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="153"/>
       <c r="D98" s="10"/>
@@ -26049,7 +26050,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="153"/>
       <c r="D99" s="10"/>
@@ -26094,7 +26095,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="153"/>
       <c r="D100" s="10"/>
@@ -26139,7 +26140,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="153"/>
       <c r="D101" s="10"/>
@@ -26184,7 +26185,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="153"/>
       <c r="D102" s="10"/>
@@ -26229,7 +26230,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="153"/>
       <c r="D103" s="10"/>
@@ -26274,7 +26275,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="153"/>
       <c r="D104" s="10"/>
@@ -26319,7 +26320,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="153"/>
       <c r="D105" s="10"/>
@@ -26364,7 +26365,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="153"/>
       <c r="D106" s="10"/>
@@ -26409,7 +26410,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="153"/>
       <c r="D107" s="10"/>
@@ -26454,7 +26455,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="153"/>
       <c r="D108" s="10"/>
@@ -26499,7 +26500,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="153"/>
       <c r="D109" s="10"/>
@@ -26544,7 +26545,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="153"/>
       <c r="D110" s="10"/>
@@ -26589,7 +26590,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="153"/>
       <c r="D111" s="10"/>
@@ -26634,7 +26635,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:44" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="153"/>
       <c r="D112" s="10"/>
@@ -26679,7 +26680,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="153"/>
       <c r="D113" s="10"/>
@@ -26724,7 +26725,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="153"/>
       <c r="D114" s="10"/>
@@ -26769,7 +26770,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="153"/>
       <c r="D115" s="10"/>
@@ -26814,7 +26815,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="153"/>
       <c r="D116" s="10"/>
@@ -26859,7 +26860,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="153"/>
       <c r="D117" s="10"/>
@@ -26904,7 +26905,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="153"/>
       <c r="D118" s="10"/>
@@ -26949,7 +26950,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="153"/>
       <c r="D119" s="10"/>
@@ -26994,7 +26995,7 @@
       <c r="AQ119" s="28"/>
       <c r="AR119" s="28"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="153"/>
       <c r="D120" s="10"/>
@@ -27039,7 +27040,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:70" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="153"/>
       <c r="D121" s="10"/>
@@ -27084,7 +27085,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="153"/>
       <c r="D122" s="10"/>
@@ -27129,7 +27130,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="153"/>
       <c r="D123" s="10"/>
@@ -27200,7 +27201,7 @@
       <c r="BQ123" s="106"/>
       <c r="BR123" s="106"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="153"/>
       <c r="D124" s="10"/>
@@ -27245,7 +27246,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="153"/>
       <c r="D125" s="10"/>
@@ -27290,7 +27291,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="153"/>
       <c r="D126" s="10"/>
@@ -27335,7 +27336,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="153"/>
       <c r="D127" s="10"/>
@@ -27380,7 +27381,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="153"/>
       <c r="D128" s="10"/>
@@ -27425,7 +27426,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="153"/>
       <c r="D129" s="10"/>
@@ -27470,7 +27471,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:44" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="153"/>
       <c r="D130" s="10"/>
@@ -27515,7 +27516,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="153"/>
       <c r="D131" s="10"/>
@@ -27560,7 +27561,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="153"/>
       <c r="D132" s="10"/>
@@ -27605,7 +27606,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="153"/>
       <c r="D133" s="10"/>
@@ -27650,7 +27651,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="153"/>
       <c r="D134" s="10"/>
@@ -27695,7 +27696,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="153"/>
       <c r="D135" s="10"/>
@@ -27740,7 +27741,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="153"/>
       <c r="D136" s="10"/>
@@ -27785,7 +27786,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="153"/>
       <c r="D137" s="10"/>
@@ -27830,7 +27831,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="153"/>
       <c r="D138" s="10"/>
@@ -27875,7 +27876,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="153"/>
       <c r="D139" s="10"/>
@@ -27920,7 +27921,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="153"/>
       <c r="D140" s="10"/>
@@ -27965,7 +27966,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="153"/>
       <c r="D141" s="10"/>
@@ -28010,7 +28011,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="153"/>
       <c r="D142" s="10"/>
@@ -28055,7 +28056,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="153"/>
       <c r="D143" s="10"/>
@@ -28100,7 +28101,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="153"/>
       <c r="D144" s="10"/>
@@ -28145,7 +28146,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="153"/>
       <c r="D145" s="10"/>
@@ -28190,7 +28191,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:44" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="153"/>
       <c r="D146" s="10"/>
@@ -28235,7 +28236,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:44" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="153"/>
       <c r="D147" s="10"/>
@@ -28280,7 +28281,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="153"/>
       <c r="D148" s="10"/>
@@ -28325,7 +28326,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="153"/>
       <c r="D149" s="10"/>
@@ -28370,7 +28371,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="153"/>
       <c r="D150" s="10"/>
@@ -28415,7 +28416,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="153"/>
       <c r="D151" s="10"/>
@@ -28460,7 +28461,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="153"/>
       <c r="D152" s="10"/>
@@ -28505,7 +28506,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="153"/>
       <c r="D153" s="10"/>
@@ -28550,7 +28551,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="153"/>
       <c r="D154" s="10"/>
@@ -28595,7 +28596,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="153"/>
       <c r="D155" s="10"/>
@@ -28640,7 +28641,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="153"/>
       <c r="D156" s="10"/>
@@ -28685,7 +28686,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="153"/>
       <c r="D157" s="10"/>
@@ -28730,7 +28731,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="153"/>
       <c r="D158" s="10"/>
@@ -28775,7 +28776,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="153"/>
       <c r="D159" s="10"/>
@@ -28820,7 +28821,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="153"/>
       <c r="D160" s="10"/>
@@ -28865,7 +28866,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="153"/>
       <c r="D161" s="10"/>
@@ -28910,7 +28911,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="153"/>
       <c r="D162" s="10"/>
@@ -28955,7 +28956,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="153"/>
       <c r="D163" s="10"/>
@@ -29000,7 +29001,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="153"/>
       <c r="D164" s="10"/>
@@ -29045,7 +29046,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="153"/>
       <c r="D165" s="10"/>
@@ -29090,7 +29091,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="153"/>
       <c r="D166" s="10"/>
@@ -29135,7 +29136,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="153"/>
       <c r="D167" s="10"/>
@@ -29180,7 +29181,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="153"/>
       <c r="D168" s="10"/>
@@ -29225,7 +29226,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="153"/>
       <c r="D169" s="10"/>
@@ -29270,7 +29271,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="153"/>
       <c r="D170" s="10"/>
@@ -29315,7 +29316,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="153"/>
       <c r="D171" s="10"/>
@@ -29360,7 +29361,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="153"/>
       <c r="D172" s="10"/>
@@ -29405,7 +29406,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="153"/>
       <c r="D173" s="10"/>
@@ -29450,7 +29451,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="153"/>
       <c r="D174" s="10"/>
@@ -29495,7 +29496,7 @@
       <c r="AQ174" s="28"/>
       <c r="AR174" s="28"/>
     </row>
-    <row r="175" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="153"/>
       <c r="D175" s="10"/>
@@ -29540,7 +29541,7 @@
       <c r="AQ175" s="28"/>
       <c r="AR175" s="28"/>
     </row>
-    <row r="176" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="153"/>
       <c r="D176" s="10"/>
@@ -29585,7 +29586,7 @@
       <c r="AQ176" s="28"/>
       <c r="AR176" s="28"/>
     </row>
-    <row r="177" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="153"/>
       <c r="D177" s="10"/>
@@ -29630,7 +29631,7 @@
       <c r="AQ177" s="28"/>
       <c r="AR177" s="28"/>
     </row>
-    <row r="178" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="153"/>
       <c r="D178" s="10"/>
@@ -29748,7 +29749,13 @@
       <c r="AR196" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="H6:I178">
     <cfRule type="expression" dxfId="14" priority="7">
       <formula>AND(G6="S",H6="")</formula>
@@ -33536,12 +33543,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33746,23 +33758,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -33787,11 +33796,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>